--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2736.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2736.xlsx
@@ -354,7 +354,7 @@
         <v>2.404211073808692</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.368203725222434</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2736.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2736.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160206924641844</v>
+        <v>0.9377737641334534</v>
       </c>
       <c r="B1">
-        <v>2.404211073808692</v>
+        <v>2.009668588638306</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.998775243759155</v>
       </c>
       <c r="D1">
-        <v>2.368203725222434</v>
+        <v>3.638375997543335</v>
       </c>
       <c r="E1">
-        <v>1.21961560205942</v>
+        <v>1.779800534248352</v>
       </c>
     </row>
   </sheetData>
